--- a/Assets/StreamingAssets/Excels/PlayerData.xlsx
+++ b/Assets/StreamingAssets/Excels/PlayerData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\TestSteamVR\Assets\StreamingAssets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\SteamVR__IK\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE63703-95B2-4503-A896-5333C1E53900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E272D106-53AD-4AD4-AA9E-FB30B1FE5B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30750" yWindow="1500" windowWidth="24075" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>selfid</t>
+  </si>
+  <si>
+    <t>PlayerEntity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerEntityPath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerheight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -565,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -582,7 +594,7 @@
     <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -616,8 +628,14 @@
       <c r="K1" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="L1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -651,13 +669,19 @@
       <c r="K2" s="10">
         <v>1.1000000000000001</v>
       </c>
+      <c r="L2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="6">
+        <v>170</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>

--- a/Assets/StreamingAssets/Excels/PlayerData.xlsx
+++ b/Assets/StreamingAssets/Excels/PlayerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\SteamVR__IK\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E272D106-53AD-4AD4-AA9E-FB30B1FE5B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC47E9E-8094-459C-A569-484BF0962A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="1500" windowWidth="24075" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33225" yWindow="540" windowWidth="24075" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>playerheight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>170.0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -295,6 +299,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -580,7 +587,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -591,7 +598,9 @@
     <col min="8" max="8" width="9" style="10"/>
     <col min="9" max="9" width="9" style="6"/>
     <col min="10" max="11" width="9" style="10"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="12" max="12" width="9" style="6"/>
+    <col min="13" max="13" width="9" style="11"/>
+    <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -631,7 +640,7 @@
       <c r="L1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -672,8 +681,8 @@
       <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="6">
-        <v>170</v>
+      <c r="M2" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
